--- a/Storm Categories.xlsx
+++ b/Storm Categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huzefa Saifee\Documents\Study\GitHub\Storm-Analysis-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B2E79-3DC0-4948-9867-B396D922B455}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE053560-A626-4194-8AC8-DAFBA061E295}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F0217D2-8077-444B-A3B5-0886DF0CA9F3}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>Hurricane/Cyclone</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Marine Tropical Depression</t>
   </si>
   <si>
-    <t>Tornado/Windstorm</t>
-  </si>
-  <si>
     <t>Tornado</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>Lakeshore Flood</t>
   </si>
   <si>
-    <t>High Waves/Tides</t>
-  </si>
-  <si>
     <t>Rip Current</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>Volcanic Ashfall</t>
   </si>
   <si>
-    <t>Misc</t>
-  </si>
-  <si>
     <t>Debris Flow</t>
   </si>
   <si>
@@ -223,6 +214,15 @@
   </si>
   <si>
     <t>Storm</t>
+  </si>
+  <si>
+    <t>Windstorm</t>
+  </si>
+  <si>
+    <t>High Waves</t>
+  </si>
+  <si>
+    <t>Tides</t>
   </si>
 </sst>
 </file>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1F18EE-7A9B-437D-BEA4-E8240E18EFE4}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -623,10 +623,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -672,267 +672,276 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
